--- a/data/134/DEUSTATIS/Population by area.xlsx
+++ b/data/134/DEUSTATIS/Population by area.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DEU" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,236 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Former territory of the Federal Republic1</t>
-  </si>
-  <si>
-    <t>New Länder and Berlin-East2</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>20113</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>1999</t>
-  </si>
-  <si>
-    <t>1998</t>
-  </si>
-  <si>
-    <t>1997</t>
-  </si>
-  <si>
-    <t>1996</t>
-  </si>
-  <si>
-    <t>1995</t>
-  </si>
-  <si>
-    <t>1994</t>
-  </si>
-  <si>
-    <t>1993</t>
-  </si>
-  <si>
-    <t>1992</t>
-  </si>
-  <si>
-    <t>1991</t>
-  </si>
-  <si>
-    <t>1990</t>
-  </si>
-  <si>
-    <t>1989</t>
-  </si>
-  <si>
-    <t>1988</t>
-  </si>
-  <si>
-    <t>1987</t>
-  </si>
-  <si>
-    <t>1986</t>
-  </si>
-  <si>
-    <t>1985</t>
-  </si>
-  <si>
-    <t>1984</t>
-  </si>
-  <si>
-    <t>1983</t>
-  </si>
-  <si>
-    <t>1982</t>
-  </si>
-  <si>
-    <t>1981</t>
-  </si>
-  <si>
-    <t>1980</t>
-  </si>
-  <si>
-    <t>1979</t>
-  </si>
-  <si>
-    <t>1978</t>
-  </si>
-  <si>
-    <t>1977</t>
-  </si>
-  <si>
-    <t>1976</t>
-  </si>
-  <si>
-    <t>1975</t>
-  </si>
-  <si>
-    <t>1974</t>
-  </si>
-  <si>
-    <t>1973</t>
-  </si>
-  <si>
-    <t>1972</t>
-  </si>
-  <si>
-    <t>1971</t>
-  </si>
-  <si>
-    <t>1970</t>
-  </si>
-  <si>
-    <t>1969</t>
-  </si>
-  <si>
-    <t>1968</t>
-  </si>
-  <si>
-    <t>1967</t>
-  </si>
-  <si>
-    <t>1966</t>
-  </si>
-  <si>
-    <t>1965</t>
-  </si>
-  <si>
-    <t>1964</t>
-  </si>
-  <si>
-    <t>1963</t>
-  </si>
-  <si>
-    <t>1962</t>
-  </si>
-  <si>
-    <t>1961</t>
-  </si>
-  <si>
-    <t>1960</t>
-  </si>
-  <si>
-    <t>1959</t>
-  </si>
-  <si>
-    <t>1958</t>
-  </si>
-  <si>
-    <t>1957</t>
-  </si>
-  <si>
-    <t>1956</t>
-  </si>
-  <si>
-    <t>1955</t>
-  </si>
-  <si>
-    <t>1954</t>
-  </si>
-  <si>
-    <t>1953</t>
-  </si>
-  <si>
-    <t>1952</t>
-  </si>
-  <si>
-    <t>1951</t>
-  </si>
-  <si>
-    <t>1950</t>
-  </si>
-  <si>
-    <t>1: From 2001 there is no difference between Berlin-West and Berlin-East. From 2001: without Berlin-West. 2: From 2001: Berlin-West included. 3: From 2011: Population based only on data from the 2011 Census.</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -596,23 +366,33 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Former territory of the Federal Republic1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>New Länder and Berlin-East2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>83167</v>
@@ -624,9 +404,11 @@
         <v>16200</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>83019</v>
@@ -638,9 +420,11 @@
         <v>16196</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>82792</v>
@@ -652,9 +436,11 @@
         <v>16184</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>82522</v>
@@ -666,9 +452,11 @@
         <v>16156</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>82176</v>
@@ -680,9 +468,11 @@
         <v>16118</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>81198</v>
@@ -694,9 +484,11 @@
         <v>15974</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
       </c>
       <c r="B8" t="n">
         <v>80767</v>
@@ -708,9 +500,11 @@
         <v>15919</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
       </c>
       <c r="B9" t="n">
         <v>80524</v>
@@ -722,9 +516,11 @@
         <v>15905</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>20113</t>
+        </is>
       </c>
       <c r="B10" t="n">
         <v>80328</v>
@@ -736,9 +532,11 @@
         <v>15899</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="B11" t="n">
         <v>81752</v>
@@ -750,9 +548,11 @@
         <v>16326</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
       </c>
       <c r="B12" t="n">
         <v>81802</v>
@@ -764,9 +564,11 @@
         <v>16380</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
       </c>
       <c r="B13" t="n">
         <v>82002</v>
@@ -778,9 +580,11 @@
         <v>16461</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
       </c>
       <c r="B14" t="n">
         <v>82218</v>
@@ -792,9 +596,11 @@
         <v>16554</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>17</v>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
       </c>
       <c r="B15" t="n">
         <v>82315</v>
@@ -806,9 +612,11 @@
         <v>16648</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>18</v>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
       </c>
       <c r="B16" t="n">
         <v>82438</v>
@@ -820,9 +628,11 @@
         <v>16740</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
-        <v>19</v>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
       </c>
       <c r="B17" t="n">
         <v>82501</v>
@@ -834,9 +644,11 @@
         <v>16821</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1" t="s">
-        <v>20</v>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
       </c>
       <c r="B18" t="n">
         <v>82532</v>
@@ -848,9 +660,11 @@
         <v>16913</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
-        <v>21</v>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
       </c>
       <c r="B19" t="n">
         <v>82537</v>
@@ -862,9 +676,11 @@
         <v>17009</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1" t="s">
-        <v>22</v>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
       </c>
       <c r="B20" t="n">
         <v>82440</v>
@@ -876,9 +692,11 @@
         <v>17118</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1" t="s">
-        <v>23</v>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
       </c>
       <c r="B21" t="n">
         <v>82260</v>
@@ -890,9 +708,11 @@
         <v>15120</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1" t="s">
-        <v>24</v>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
       </c>
       <c r="B22" t="n">
         <v>82163</v>
@@ -904,9 +724,11 @@
         <v>15217</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1" t="s">
-        <v>25</v>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
       </c>
       <c r="B23" t="n">
         <v>82037</v>
@@ -918,9 +740,11 @@
         <v>15290</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1" t="s">
-        <v>26</v>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
       </c>
       <c r="B24" t="n">
         <v>82057</v>
@@ -932,9 +756,11 @@
         <v>15369</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1" t="s">
-        <v>27</v>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
       </c>
       <c r="B25" t="n">
         <v>82012</v>
@@ -946,9 +772,11 @@
         <v>15429</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1" t="s">
-        <v>28</v>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
       </c>
       <c r="B26" t="n">
         <v>81817</v>
@@ -960,9 +788,11 @@
         <v>15476</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="1" t="s">
-        <v>29</v>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
       </c>
       <c r="B27" t="n">
         <v>81539</v>
@@ -974,9 +804,11 @@
         <v>15531</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1" t="s">
-        <v>30</v>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>1993</t>
+        </is>
       </c>
       <c r="B28" t="n">
         <v>81338</v>
@@ -988,9 +820,11 @@
         <v>15598</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="1" t="s">
-        <v>31</v>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
       </c>
       <c r="B29" t="n">
         <v>80975</v>
@@ -1002,9 +836,11 @@
         <v>15685</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="1" t="s">
-        <v>32</v>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
       </c>
       <c r="B30" t="n">
         <v>80275</v>
@@ -1016,9 +852,11 @@
         <v>15790</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="1" t="s">
-        <v>33</v>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
       </c>
       <c r="B31" t="n">
         <v>79753</v>
@@ -1030,9 +868,11 @@
         <v>16028</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="1" t="s">
-        <v>34</v>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>1989</t>
+        </is>
       </c>
       <c r="B32" t="n">
         <v>79113</v>
@@ -1044,9 +884,11 @@
         <v>16434</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="1" t="s">
-        <v>35</v>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
       </c>
       <c r="B33" t="n">
         <v>78390</v>
@@ -1058,9 +900,11 @@
         <v>16675</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="1" t="s">
-        <v>36</v>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
       </c>
       <c r="B34" t="n">
         <v>77900</v>
@@ -1072,9 +916,11 @@
         <v>16661</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="1" t="s">
-        <v>37</v>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>1986</t>
+        </is>
       </c>
       <c r="B35" t="n">
         <v>77780</v>
@@ -1086,9 +932,11 @@
         <v>16640</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="1" t="s">
-        <v>38</v>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
       </c>
       <c r="B36" t="n">
         <v>77661</v>
@@ -1100,9 +948,11 @@
         <v>16640</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="1" t="s">
-        <v>39</v>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
       </c>
       <c r="B37" t="n">
         <v>77709</v>
@@ -1114,9 +964,11 @@
         <v>16660</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="1" t="s">
-        <v>40</v>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>1983</t>
+        </is>
       </c>
       <c r="B38" t="n">
         <v>78008</v>
@@ -1128,9 +980,11 @@
         <v>16701</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="1" t="s">
-        <v>41</v>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>1982</t>
+        </is>
       </c>
       <c r="B39" t="n">
         <v>78248</v>
@@ -1142,9 +996,11 @@
         <v>16702</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="1" t="s">
-        <v>42</v>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>1981</t>
+        </is>
       </c>
       <c r="B40" t="n">
         <v>78418</v>
@@ -1156,9 +1012,11 @@
         <v>16706</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="1" t="s">
-        <v>43</v>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
       </c>
       <c r="B41" t="n">
         <v>78397</v>
@@ -1170,9 +1028,11 @@
         <v>16740</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="1" t="s">
-        <v>44</v>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>1979</t>
+        </is>
       </c>
       <c r="B42" t="n">
         <v>78180</v>
@@ -1184,9 +1044,11 @@
         <v>16740</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="1" t="s">
-        <v>45</v>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>1978</t>
+        </is>
       </c>
       <c r="B43" t="n">
         <v>78073</v>
@@ -1198,9 +1060,11 @@
         <v>16751</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="1" t="s">
-        <v>46</v>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>1977</t>
+        </is>
       </c>
       <c r="B44" t="n">
         <v>78111</v>
@@ -1212,9 +1076,11 @@
         <v>16758</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="1" t="s">
-        <v>47</v>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>1976</t>
+        </is>
       </c>
       <c r="B45" t="n">
         <v>78209</v>
@@ -1226,9 +1092,11 @@
         <v>16767</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="1" t="s">
-        <v>48</v>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
       </c>
       <c r="B46" t="n">
         <v>78465</v>
@@ -1240,9 +1108,11 @@
         <v>16820</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="1" t="s">
-        <v>49</v>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>1974</t>
+        </is>
       </c>
       <c r="B47" t="n">
         <v>78882</v>
@@ -1254,9 +1124,11 @@
         <v>16891</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="1" t="s">
-        <v>50</v>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>1973</t>
+        </is>
       </c>
       <c r="B48" t="n">
         <v>79053</v>
@@ -1268,9 +1140,11 @@
         <v>16951</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="1" t="s">
-        <v>51</v>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>1972</t>
+        </is>
       </c>
       <c r="B49" t="n">
         <v>78821</v>
@@ -1282,9 +1156,11 @@
         <v>17011</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="1" t="s">
-        <v>52</v>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>1971</t>
+        </is>
       </c>
       <c r="B50" t="n">
         <v>78556</v>
@@ -1296,9 +1172,11 @@
         <v>17054</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="1" t="s">
-        <v>53</v>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
       </c>
       <c r="B51" t="n">
         <v>78069</v>
@@ -1310,9 +1188,11 @@
         <v>17068</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="1" t="s">
-        <v>54</v>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>1969</t>
+        </is>
       </c>
       <c r="B52" t="n">
         <v>78269</v>
@@ -1324,9 +1204,11 @@
         <v>17075</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="1" t="s">
-        <v>55</v>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>1968</t>
+        </is>
       </c>
       <c r="B53" t="n">
         <v>77550</v>
@@ -1338,9 +1220,11 @@
         <v>17087</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="1" t="s">
-        <v>56</v>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>1967</t>
+        </is>
       </c>
       <c r="B54" t="n">
         <v>77038</v>
@@ -1352,9 +1236,11 @@
         <v>17090</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="1" t="s">
-        <v>57</v>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>1966</t>
+        </is>
       </c>
       <c r="B55" t="n">
         <v>76864</v>
@@ -1366,9 +1252,11 @@
         <v>17071</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="1" t="s">
-        <v>58</v>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>1965</t>
+        </is>
       </c>
       <c r="B56" t="n">
         <v>76336</v>
@@ -1380,9 +1268,11 @@
         <v>17040</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="1" t="s">
-        <v>59</v>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>1964</t>
+        </is>
       </c>
       <c r="B57" t="n">
         <v>75591</v>
@@ -1394,9 +1284,11 @@
         <v>17004</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="1" t="s">
-        <v>60</v>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>1963</t>
+        </is>
       </c>
       <c r="B58" t="n">
         <v>75046</v>
@@ -1408,9 +1300,11 @@
         <v>17181</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="1" t="s">
-        <v>61</v>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>1962</t>
+        </is>
       </c>
       <c r="B59" t="n">
         <v>74383</v>
@@ -1422,9 +1316,11 @@
         <v>17136</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="1" t="s">
-        <v>62</v>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>1961</t>
+        </is>
       </c>
       <c r="B60" t="n">
         <v>73668</v>
@@ -1436,9 +1332,11 @@
         <v>17079</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="1" t="s">
-        <v>63</v>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>1960</t>
+        </is>
       </c>
       <c r="B61" t="n">
         <v>73147</v>
@@ -1450,9 +1348,11 @@
         <v>17188</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="1" t="s">
-        <v>64</v>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>1959</t>
+        </is>
       </c>
       <c r="B62" t="n">
         <v>72543</v>
@@ -1464,9 +1364,11 @@
         <v>17286</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="1" t="s">
-        <v>65</v>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>1958</t>
+        </is>
       </c>
       <c r="B63" t="n">
         <v>72031</v>
@@ -1478,9 +1380,11 @@
         <v>17312</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="1" t="s">
-        <v>66</v>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>1957</t>
+        </is>
       </c>
       <c r="B64" t="n">
         <v>71475</v>
@@ -1492,9 +1396,11 @@
         <v>17411</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="1" t="s">
-        <v>67</v>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>1956</t>
+        </is>
       </c>
       <c r="B65" t="n">
         <v>70943</v>
@@ -1506,9 +1412,11 @@
         <v>17604</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="1" t="s">
-        <v>68</v>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>1955</t>
+        </is>
       </c>
       <c r="B66" t="n">
         <v>71350</v>
@@ -1520,9 +1428,11 @@
         <v>17832</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="1" t="s">
-        <v>69</v>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>1954</t>
+        </is>
       </c>
       <c r="B67" t="n">
         <v>70945</v>
@@ -1534,9 +1444,11 @@
         <v>18002</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="1" t="s">
-        <v>70</v>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>1953</t>
+        </is>
       </c>
       <c r="B68" t="n">
         <v>70566</v>
@@ -1548,9 +1460,11 @@
         <v>18112</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="1" t="s">
-        <v>71</v>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>1952</t>
+        </is>
       </c>
       <c r="B69" t="n">
         <v>70164</v>
@@ -1562,9 +1476,11 @@
         <v>18300</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="1" t="s">
-        <v>72</v>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>1951</t>
+        </is>
       </c>
       <c r="B70" t="n">
         <v>69785</v>
@@ -1576,9 +1492,11 @@
         <v>18350</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="1" t="s">
-        <v>73</v>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
       </c>
       <c r="B71" t="n">
         <v>69346</v>
@@ -1590,18 +1508,26 @@
         <v>18388</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B72" t="s">
-        <v>74</v>
-      </c>
-      <c r="C72" t="s">
-        <v>74</v>
-      </c>
-      <c r="D72" t="s">
-        <v>74</v>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>1: From 2001 there is no difference between Berlin-West and Berlin-East. From 2001: without Berlin-West. 2: From 2001: Berlin-West included. 3: From 2011: Population based only on data from the 2011 Census.</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>1: From 2001 there is no difference between Berlin-West and Berlin-East. From 2001: without Berlin-West. 2: From 2001: Berlin-West included. 3: From 2011: Population based only on data from the 2011 Census.</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>1: From 2001 there is no difference between Berlin-West and Berlin-East. From 2001: without Berlin-West. 2: From 2001: Berlin-West included. 3: From 2011: Population based only on data from the 2011 Census.</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1: From 2001 there is no difference between Berlin-West and Berlin-East. From 2001: without Berlin-West. 2: From 2001: Berlin-West included. 3: From 2011: Population based only on data from the 2011 Census.</t>
+        </is>
       </c>
     </row>
   </sheetData>
